--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="H2">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="I2">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="J2">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1285086666666667</v>
+        <v>0.122074</v>
       </c>
       <c r="N2">
-        <v>0.385526</v>
+        <v>0.244148</v>
       </c>
       <c r="O2">
-        <v>0.04256045647344217</v>
+        <v>0.0286904980655642</v>
       </c>
       <c r="P2">
-        <v>0.04291740287405867</v>
+        <v>0.01942745705036666</v>
       </c>
       <c r="Q2">
-        <v>0.7719253448986667</v>
+        <v>0.47466216531</v>
       </c>
       <c r="R2">
-        <v>4.631552069392</v>
+        <v>1.89864866124</v>
       </c>
       <c r="S2">
-        <v>0.004990326890255176</v>
+        <v>0.002560725901357922</v>
       </c>
       <c r="T2">
-        <v>0.003527800046541998</v>
+        <v>0.001212759528997924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="H3">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="I3">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="J3">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.6763393333333333</v>
+        <v>0.1285086666666667</v>
       </c>
       <c r="N3">
-        <v>2.029018</v>
+        <v>0.385526</v>
       </c>
       <c r="O3">
-        <v>0.2239950931268726</v>
+        <v>0.03020280856208721</v>
       </c>
       <c r="P3">
-        <v>0.2258736970910309</v>
+        <v>0.03067725235021241</v>
       </c>
       <c r="Q3">
-        <v>4.062632402109333</v>
+        <v>0.4996821762300001</v>
       </c>
       <c r="R3">
-        <v>24.375794412656</v>
+        <v>2.99809305738</v>
       </c>
       <c r="S3">
-        <v>0.0262640213272562</v>
+        <v>0.00269570482889317</v>
       </c>
       <c r="T3">
-        <v>0.01856676279896699</v>
+        <v>0.00191502830322777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="H4">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="I4">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="J4">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0753385</v>
+        <v>1.219918333333333</v>
       </c>
       <c r="N4">
-        <v>0.150677</v>
+        <v>3.659755</v>
       </c>
       <c r="O4">
-        <v>0.02495116503186106</v>
+        <v>0.2867118680689278</v>
       </c>
       <c r="P4">
-        <v>0.01677361711753432</v>
+        <v>0.2912157096407287</v>
       </c>
       <c r="Q4">
-        <v>0.452543000446</v>
+        <v>4.743426754274999</v>
       </c>
       <c r="R4">
-        <v>1.810172001784</v>
+        <v>28.46056052565</v>
       </c>
       <c r="S4">
-        <v>0.002925590562671437</v>
+        <v>0.02559002304920011</v>
       </c>
       <c r="T4">
-        <v>0.001378787235135396</v>
+        <v>0.01817914850847763</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="H5">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="I5">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="J5">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.04270366666666667</v>
+        <v>0.0753385</v>
       </c>
       <c r="N5">
-        <v>0.128111</v>
+        <v>0.150677</v>
       </c>
       <c r="O5">
-        <v>0.01414291808923172</v>
+        <v>0.01770646565617993</v>
       </c>
       <c r="P5">
-        <v>0.01426153203570843</v>
+        <v>0.01198973960867219</v>
       </c>
       <c r="Q5">
-        <v>0.2565122141186666</v>
+        <v>0.2929398196275</v>
       </c>
       <c r="R5">
-        <v>1.539073284712</v>
+        <v>1.17175927851</v>
       </c>
       <c r="S5">
-        <v>0.001658294818604921</v>
+        <v>0.001580363126623637</v>
       </c>
       <c r="T5">
-        <v>0.001172294454232767</v>
+        <v>0.000748459817613989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="H6">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="I6">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="J6">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.096548</v>
+        <v>2.49977</v>
       </c>
       <c r="N6">
-        <v>6.289643999999999</v>
+        <v>7.499309999999999</v>
       </c>
       <c r="O6">
-        <v>0.6943503672785926</v>
+        <v>0.5875095954040616</v>
       </c>
       <c r="P6">
-        <v>0.7001737508816677</v>
+        <v>0.5967385476530023</v>
       </c>
       <c r="Q6">
-        <v>12.593536140208</v>
+        <v>9.719893187549999</v>
       </c>
       <c r="R6">
-        <v>75.56121684124798</v>
+        <v>58.3193591253</v>
       </c>
       <c r="S6">
-        <v>0.0814144301119305</v>
+        <v>0.05243725761781782</v>
       </c>
       <c r="T6">
-        <v>0.05755411151500182</v>
+        <v>0.03725141989043294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,25 +844,25 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.914889666666667</v>
+        <v>3.888315</v>
       </c>
       <c r="H7">
-        <v>5.744669</v>
+        <v>7.77663</v>
       </c>
       <c r="I7">
-        <v>0.03737864813934017</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="J7">
-        <v>0.0393063448789756</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1285086666666667</v>
+        <v>0.2092486666666667</v>
       </c>
       <c r="N7">
-        <v>0.385526</v>
+        <v>0.627746</v>
       </c>
       <c r="O7">
-        <v>0.04256045647344217</v>
+        <v>0.04917876424317944</v>
       </c>
       <c r="P7">
-        <v>0.04291740287405867</v>
+        <v>0.04995129369701767</v>
       </c>
       <c r="Q7">
-        <v>0.2460799178771111</v>
+        <v>0.81362472933</v>
       </c>
       <c r="R7">
-        <v>2.214719260894</v>
+        <v>4.88174837598</v>
       </c>
       <c r="S7">
-        <v>0.001590852327170498</v>
+        <v>0.004389374318511258</v>
       </c>
       <c r="T7">
-        <v>0.001686926238677689</v>
+        <v>0.003118210852803754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>5.744669</v>
       </c>
       <c r="I8">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="J8">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.6763393333333333</v>
+        <v>0.122074</v>
       </c>
       <c r="N8">
-        <v>2.029018</v>
+        <v>0.244148</v>
       </c>
       <c r="O8">
-        <v>0.2239950931268726</v>
+        <v>0.0286904980655642</v>
       </c>
       <c r="P8">
-        <v>0.2258736970910309</v>
+        <v>0.01942745705036666</v>
       </c>
       <c r="Q8">
-        <v>1.295115200560222</v>
+        <v>0.2337582411686667</v>
       </c>
       <c r="R8">
-        <v>11.656036805042</v>
+        <v>1.402549447012</v>
       </c>
       <c r="S8">
-        <v>0.008372633770928103</v>
+        <v>0.001261088046538403</v>
       </c>
       <c r="T8">
-        <v>0.008878269436949327</v>
+        <v>0.0008958767577586918</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>5.744669</v>
       </c>
       <c r="I9">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="J9">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.0753385</v>
+        <v>0.1285086666666667</v>
       </c>
       <c r="N9">
-        <v>0.150677</v>
+        <v>0.385526</v>
       </c>
       <c r="O9">
-        <v>0.02495116503186106</v>
+        <v>0.03020280856208721</v>
       </c>
       <c r="P9">
-        <v>0.01677361711753432</v>
+        <v>0.03067725235021241</v>
       </c>
       <c r="Q9">
-        <v>0.1442649151521667</v>
+        <v>0.2460799178771111</v>
       </c>
       <c r="R9">
-        <v>0.8655894909130001</v>
+        <v>2.214719260894</v>
       </c>
       <c r="S9">
-        <v>0.0009326408183925431</v>
+        <v>0.001327561507036072</v>
       </c>
       <c r="T9">
-        <v>0.0006593095792896928</v>
+        <v>0.001414649241081956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>5.744669</v>
       </c>
       <c r="I10">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="J10">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.04270366666666667</v>
+        <v>1.219918333333333</v>
       </c>
       <c r="N10">
-        <v>0.128111</v>
+        <v>3.659755</v>
       </c>
       <c r="O10">
-        <v>0.01414291808923172</v>
+        <v>0.2867118680689278</v>
       </c>
       <c r="P10">
-        <v>0.01426153203570843</v>
+        <v>0.2912157096407287</v>
       </c>
       <c r="Q10">
-        <v>0.08177281002877777</v>
+        <v>2.336009010677222</v>
       </c>
       <c r="R10">
-        <v>0.735955290259</v>
+        <v>21.024081096095</v>
       </c>
       <c r="S10">
-        <v>0.0005286431589209018</v>
+        <v>0.01260239222045413</v>
       </c>
       <c r="T10">
-        <v>0.0005605686966981147</v>
+        <v>0.01342910629450645</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>5.744669</v>
       </c>
       <c r="I11">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="J11">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>2.096548</v>
+        <v>0.0753385</v>
       </c>
       <c r="N11">
-        <v>6.289643999999999</v>
+        <v>0.150677</v>
       </c>
       <c r="O11">
-        <v>0.6943503672785926</v>
+        <v>0.01770646565617993</v>
       </c>
       <c r="P11">
-        <v>0.7001737508816677</v>
+        <v>0.01198973960867219</v>
       </c>
       <c r="Q11">
-        <v>4.014658100870666</v>
+        <v>0.1442649151521667</v>
       </c>
       <c r="R11">
-        <v>36.13192290783599</v>
+        <v>0.8655894909130001</v>
       </c>
       <c r="S11">
-        <v>0.02595387806392813</v>
+        <v>0.0007782859723948875</v>
       </c>
       <c r="T11">
-        <v>0.02752127092736078</v>
+        <v>0.0005528942372200731</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.26104466666667</v>
+        <v>1.914889666666667</v>
       </c>
       <c r="H12">
-        <v>42.783134</v>
+        <v>5.744669</v>
       </c>
       <c r="I12">
-        <v>0.2783756056413766</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="J12">
-        <v>0.2927320303410739</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1285086666666667</v>
+        <v>2.49977</v>
       </c>
       <c r="N12">
-        <v>0.385526</v>
+        <v>7.499309999999999</v>
       </c>
       <c r="O12">
-        <v>0.04256045647344217</v>
+        <v>0.5875095954040616</v>
       </c>
       <c r="P12">
-        <v>0.04291740287405867</v>
+        <v>0.5967385476530023</v>
       </c>
       <c r="Q12">
-        <v>1.832667835387111</v>
+        <v>4.786783742043333</v>
       </c>
       <c r="R12">
-        <v>16.494010518484</v>
+        <v>43.08105367839</v>
       </c>
       <c r="S12">
-        <v>0.01184779284716791</v>
+        <v>0.02582392701226554</v>
       </c>
       <c r="T12">
-        <v>0.01256329848028904</v>
+        <v>0.02751797077275805</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.26104466666667</v>
+        <v>1.914889666666667</v>
       </c>
       <c r="H13">
-        <v>42.783134</v>
+        <v>5.744669</v>
       </c>
       <c r="I13">
-        <v>0.2783756056413766</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="J13">
-        <v>0.2927320303410739</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.6763393333333333</v>
+        <v>0.2092486666666667</v>
       </c>
       <c r="N13">
-        <v>2.029018</v>
+        <v>0.627746</v>
       </c>
       <c r="O13">
-        <v>0.2239950931268726</v>
+        <v>0.04917876424317944</v>
       </c>
       <c r="P13">
-        <v>0.2258736970910309</v>
+        <v>0.04995129369701767</v>
       </c>
       <c r="Q13">
-        <v>9.645305442490221</v>
+        <v>0.4006881095637778</v>
       </c>
       <c r="R13">
-        <v>86.80774898241198</v>
+        <v>3.606192986074</v>
       </c>
       <c r="S13">
-        <v>0.0623547697098897</v>
+        <v>0.002161647789762211</v>
       </c>
       <c r="T13">
-        <v>0.06612046595010218</v>
+        <v>0.002303451394957107</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="H14">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="I14">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="J14">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.0753385</v>
+        <v>0.122074</v>
       </c>
       <c r="N14">
-        <v>0.150677</v>
+        <v>0.244148</v>
       </c>
       <c r="O14">
-        <v>0.02495116503186106</v>
+        <v>0.0286904980655642</v>
       </c>
       <c r="P14">
-        <v>0.01677361711753432</v>
+        <v>0.01942745705036666</v>
       </c>
       <c r="Q14">
-        <v>1.074405713619667</v>
+        <v>2.153828366546</v>
       </c>
       <c r="R14">
-        <v>6.446434281718</v>
+        <v>12.922970199276</v>
       </c>
       <c r="S14">
-        <v>0.006945795677202261</v>
+        <v>0.01161955699943286</v>
       </c>
       <c r="T14">
-        <v>0.004910174994979615</v>
+        <v>0.008254531537126282</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="H15">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="I15">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="J15">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.04270366666666667</v>
+        <v>0.1285086666666667</v>
       </c>
       <c r="N15">
-        <v>0.128111</v>
+        <v>0.385526</v>
       </c>
       <c r="O15">
-        <v>0.01414291808923172</v>
+        <v>0.03020280856208721</v>
       </c>
       <c r="P15">
-        <v>0.01426153203570843</v>
+        <v>0.03067725235021241</v>
       </c>
       <c r="Q15">
-        <v>0.6089988977637777</v>
+        <v>2.267359237951334</v>
       </c>
       <c r="R15">
-        <v>5.480990079874</v>
+        <v>20.40623314156201</v>
       </c>
       <c r="S15">
-        <v>0.003937043388626262</v>
+        <v>0.01223203775787187</v>
       </c>
       <c r="T15">
-        <v>0.0041748072285872</v>
+        <v>0.01303445666309839</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="H16">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="I16">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="J16">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.096548</v>
+        <v>1.219918333333333</v>
       </c>
       <c r="N16">
-        <v>6.289643999999999</v>
+        <v>3.659755</v>
       </c>
       <c r="O16">
-        <v>0.6943503672785926</v>
+        <v>0.2867118680689278</v>
       </c>
       <c r="P16">
-        <v>0.7001737508816677</v>
+        <v>0.2912157096407287</v>
       </c>
       <c r="Q16">
-        <v>29.89896467381066</v>
+        <v>21.52378648363166</v>
       </c>
       <c r="R16">
-        <v>269.0906820642959</v>
+        <v>193.714078352685</v>
       </c>
       <c r="S16">
-        <v>0.1932902040184905</v>
+        <v>0.1161173600342399</v>
       </c>
       <c r="T16">
-        <v>0.2049632836871159</v>
+        <v>0.1237346325411455</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.530533</v>
+        <v>17.643629</v>
       </c>
       <c r="H17">
-        <v>3.061066</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="I17">
-        <v>0.02987600563547634</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="J17">
-        <v>0.02094451671511558</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.1285086666666667</v>
+        <v>0.0753385</v>
       </c>
       <c r="N17">
-        <v>0.385526</v>
+        <v>0.150677</v>
       </c>
       <c r="O17">
-        <v>0.04256045647344217</v>
+        <v>0.01770646565617993</v>
       </c>
       <c r="P17">
-        <v>0.04291740287405867</v>
+        <v>0.01198973960867219</v>
       </c>
       <c r="Q17">
-        <v>0.1966867551193334</v>
+        <v>1.3292445434165</v>
       </c>
       <c r="R17">
-        <v>1.180120530716</v>
+        <v>7.975467260499001</v>
       </c>
       <c r="S17">
-        <v>0.001271536437449004</v>
+        <v>0.007171060135669942</v>
       </c>
       <c r="T17">
-        <v>0.0008988842618650715</v>
+        <v>0.005094320037106905</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.530533</v>
+        <v>17.643629</v>
       </c>
       <c r="H18">
-        <v>3.061066</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="I18">
-        <v>0.02987600563547634</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="J18">
-        <v>0.02094451671511558</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6763393333333333</v>
+        <v>2.49977</v>
       </c>
       <c r="N18">
-        <v>2.029018</v>
+        <v>7.499309999999999</v>
       </c>
       <c r="O18">
-        <v>0.2239950931268726</v>
+        <v>0.5875095954040616</v>
       </c>
       <c r="P18">
-        <v>0.2258736970910309</v>
+        <v>0.5967385476530023</v>
       </c>
       <c r="Q18">
-        <v>1.035159668864667</v>
+        <v>44.10501446533</v>
       </c>
       <c r="R18">
-        <v>6.210958013188</v>
+        <v>396.94513018797</v>
       </c>
       <c r="S18">
-        <v>0.006692078664577493</v>
+        <v>0.2379394465690669</v>
       </c>
       <c r="T18">
-        <v>0.00473081542422805</v>
+        <v>0.2535482203486675</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>17.643629</v>
+      </c>
+      <c r="H19">
+        <v>52.93088700000001</v>
+      </c>
+      <c r="I19">
+        <v>0.4049966986588931</v>
+      </c>
+      <c r="J19">
+        <v>0.424889964534524</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.530533</v>
-      </c>
-      <c r="H19">
-        <v>3.061066</v>
-      </c>
-      <c r="I19">
-        <v>0.02987600563547634</v>
-      </c>
-      <c r="J19">
-        <v>0.02094451671511558</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.0753385</v>
+        <v>0.2092486666666667</v>
       </c>
       <c r="N19">
-        <v>0.150677</v>
+        <v>0.627746</v>
       </c>
       <c r="O19">
-        <v>0.02495116503186106</v>
+        <v>0.04917876424317944</v>
       </c>
       <c r="P19">
-        <v>0.01677361711753432</v>
+        <v>0.04995129369701767</v>
       </c>
       <c r="Q19">
-        <v>0.1153080604205</v>
+        <v>3.691905843411333</v>
       </c>
       <c r="R19">
-        <v>0.4612322416820001</v>
+        <v>33.227152590702</v>
       </c>
       <c r="S19">
-        <v>0.0007454411471035813</v>
+        <v>0.01991723716261169</v>
       </c>
       <c r="T19">
-        <v>0.0003513153040911465</v>
+        <v>0.02122380340737944</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="H20">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="I20">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="J20">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.04270366666666667</v>
+        <v>0.122074</v>
       </c>
       <c r="N20">
-        <v>0.128111</v>
+        <v>0.244148</v>
       </c>
       <c r="O20">
-        <v>0.01414291808923172</v>
+        <v>0.0286904980655642</v>
       </c>
       <c r="P20">
-        <v>0.01426153203570843</v>
+        <v>0.01942745705036666</v>
       </c>
       <c r="Q20">
-        <v>0.06535937105433334</v>
+        <v>0.272320420831</v>
       </c>
       <c r="R20">
-        <v>0.3921562263260001</v>
+        <v>1.089281683324</v>
       </c>
       <c r="S20">
-        <v>0.0004225339005359672</v>
+        <v>0.001469124792440962</v>
       </c>
       <c r="T20">
-        <v>0.0002987008961050517</v>
+        <v>0.0006957773537476471</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="H21">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="I21">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="J21">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.096548</v>
+        <v>0.1285086666666667</v>
       </c>
       <c r="N21">
-        <v>6.289643999999999</v>
+        <v>0.385526</v>
       </c>
       <c r="O21">
-        <v>0.6943503672785926</v>
+        <v>0.03020280856208721</v>
       </c>
       <c r="P21">
-        <v>0.7001737508816677</v>
+        <v>0.03067725235021241</v>
       </c>
       <c r="Q21">
-        <v>3.208835900084</v>
+        <v>0.2866747561896667</v>
       </c>
       <c r="R21">
-        <v>19.253015400504</v>
+        <v>1.720048537138</v>
       </c>
       <c r="S21">
-        <v>0.0207444154858103</v>
+        <v>0.001546564118842107</v>
       </c>
       <c r="T21">
-        <v>0.01466480082882626</v>
+        <v>0.001098678916398723</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.986849</v>
+        <v>2.2307815</v>
       </c>
       <c r="H22">
-        <v>11.960547</v>
+        <v>4.461563</v>
       </c>
       <c r="I22">
-        <v>0.0778232963234332</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="J22">
-        <v>0.0818368099751608</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1285086666666667</v>
+        <v>1.219918333333333</v>
       </c>
       <c r="N22">
-        <v>0.385526</v>
+        <v>3.659755</v>
       </c>
       <c r="O22">
-        <v>0.04256045647344217</v>
+        <v>0.2867118680689278</v>
       </c>
       <c r="P22">
-        <v>0.04291740287405867</v>
+        <v>0.2912157096407287</v>
       </c>
       <c r="Q22">
-        <v>0.5123446491913334</v>
+        <v>2.721371249510833</v>
       </c>
       <c r="R22">
-        <v>4.611101842722</v>
+        <v>16.328227497065</v>
       </c>
       <c r="S22">
-        <v>0.003312195015793271</v>
+        <v>0.01468135940702571</v>
       </c>
       <c r="T22">
-        <v>0.003512223343631759</v>
+        <v>0.01042963550495896</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.986849</v>
+        <v>2.2307815</v>
       </c>
       <c r="H23">
-        <v>11.960547</v>
+        <v>4.461563</v>
       </c>
       <c r="I23">
-        <v>0.0778232963234332</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="J23">
-        <v>0.0818368099751608</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.6763393333333333</v>
+        <v>0.0753385</v>
       </c>
       <c r="N23">
-        <v>2.029018</v>
+        <v>0.150677</v>
       </c>
       <c r="O23">
-        <v>0.2239950931268726</v>
+        <v>0.01770646565617993</v>
       </c>
       <c r="P23">
-        <v>0.2258736970910309</v>
+        <v>0.01198973960867219</v>
       </c>
       <c r="Q23">
-        <v>2.696462794760667</v>
+        <v>0.16806373203775</v>
       </c>
       <c r="R23">
-        <v>24.268165152846</v>
+        <v>0.672254928151</v>
       </c>
       <c r="S23">
-        <v>0.01743203650740762</v>
+        <v>0.0009066767548807558</v>
       </c>
       <c r="T23">
-        <v>0.01848478282722572</v>
+        <v>0.0004294020198020636</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.986849</v>
+        <v>2.2307815</v>
       </c>
       <c r="H24">
-        <v>11.960547</v>
+        <v>4.461563</v>
       </c>
       <c r="I24">
-        <v>0.0778232963234332</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="J24">
-        <v>0.0818368099751608</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.0753385</v>
+        <v>2.49977</v>
       </c>
       <c r="N24">
-        <v>0.150677</v>
+        <v>7.499309999999999</v>
       </c>
       <c r="O24">
-        <v>0.02495116503186106</v>
+        <v>0.5875095954040616</v>
       </c>
       <c r="P24">
-        <v>0.01677361711753432</v>
+        <v>0.5967385476530023</v>
       </c>
       <c r="Q24">
-        <v>0.3003632233865</v>
+        <v>5.576440670255</v>
       </c>
       <c r="R24">
-        <v>1.802179340319</v>
+        <v>33.45864402153</v>
       </c>
       <c r="S24">
-        <v>0.001941781909889408</v>
+        <v>0.03008399890558303</v>
       </c>
       <c r="T24">
-        <v>0.001372699316643761</v>
+        <v>0.02137166827798412</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.986849</v>
+        <v>2.2307815</v>
       </c>
       <c r="H25">
-        <v>11.960547</v>
+        <v>4.461563</v>
       </c>
       <c r="I25">
-        <v>0.0778232963234332</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="J25">
-        <v>0.0818368099751608</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.04270366666666667</v>
+        <v>0.2092486666666667</v>
       </c>
       <c r="N25">
-        <v>0.128111</v>
+        <v>0.627746</v>
       </c>
       <c r="O25">
-        <v>0.01414291808923172</v>
+        <v>0.04917876424317944</v>
       </c>
       <c r="P25">
-        <v>0.01426153203570843</v>
+        <v>0.04995129369701767</v>
       </c>
       <c r="Q25">
-        <v>0.1702530707463333</v>
+        <v>0.4667880544996666</v>
       </c>
       <c r="R25">
-        <v>1.532277636717</v>
+        <v>2.800728326998</v>
       </c>
       <c r="S25">
-        <v>0.001100648505336324</v>
+        <v>0.002518246342261371</v>
       </c>
       <c r="T25">
-        <v>0.001167118287160939</v>
+        <v>0.001788961821131734</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="H26">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="I26">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="J26">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>2.096548</v>
+        <v>0.122074</v>
       </c>
       <c r="N26">
-        <v>6.289643999999999</v>
+        <v>0.244148</v>
       </c>
       <c r="O26">
-        <v>0.6943503672785926</v>
+        <v>0.0286904980655642</v>
       </c>
       <c r="P26">
-        <v>0.7001737508816677</v>
+        <v>0.01942745705036666</v>
       </c>
       <c r="Q26">
-        <v>8.358620297251999</v>
+        <v>1.305683890777333</v>
       </c>
       <c r="R26">
-        <v>75.227582675268</v>
+        <v>7.834103344664001</v>
       </c>
       <c r="S26">
-        <v>0.05403663438500658</v>
+        <v>0.007043954210919001</v>
       </c>
       <c r="T26">
-        <v>0.05729998620049861</v>
+        <v>0.005004024007364684</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>23.52939333333333</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="H27">
-        <v>70.58817999999999</v>
+        <v>32.087518</v>
       </c>
       <c r="I27">
-        <v>0.4592937805496555</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="J27">
-        <v>0.4829805420397951</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,27 +2117,27 @@
         <v>0.385526</v>
       </c>
       <c r="O27">
-        <v>0.04256045647344217</v>
+        <v>0.03020280856208721</v>
       </c>
       <c r="P27">
-        <v>0.04291740287405867</v>
+        <v>0.03067725235021241</v>
       </c>
       <c r="Q27">
-        <v>3.023730964742223</v>
+        <v>1.374508051607556</v>
       </c>
       <c r="R27">
-        <v>27.21357868268</v>
+        <v>12.370572464468</v>
       </c>
       <c r="S27">
-        <v>0.01954775295560631</v>
+        <v>0.007415249469225658</v>
       </c>
       <c r="T27">
-        <v>0.02072827050305312</v>
+        <v>0.007901688154165821</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>23.52939333333333</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="H28">
-        <v>70.58817999999999</v>
+        <v>32.087518</v>
       </c>
       <c r="I28">
-        <v>0.4592937805496555</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="J28">
-        <v>0.4829805420397951</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.6763393333333333</v>
+        <v>1.219918333333333</v>
       </c>
       <c r="N28">
-        <v>2.029018</v>
+        <v>3.659755</v>
       </c>
       <c r="O28">
-        <v>0.2239950931268726</v>
+        <v>0.2867118680689278</v>
       </c>
       <c r="P28">
-        <v>0.2258736970910309</v>
+        <v>0.2912157096407287</v>
       </c>
       <c r="Q28">
-        <v>15.91385420080444</v>
+        <v>13.04805049312111</v>
       </c>
       <c r="R28">
-        <v>143.22468780724</v>
+        <v>117.43245443809</v>
       </c>
       <c r="S28">
-        <v>0.1028795531468135</v>
+        <v>0.07039213002818473</v>
       </c>
       <c r="T28">
-        <v>0.1090926006535586</v>
+        <v>0.07500983780769424</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>23.52939333333333</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="H29">
-        <v>70.58817999999999</v>
+        <v>32.087518</v>
       </c>
       <c r="I29">
-        <v>0.4592937805496555</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="J29">
-        <v>0.4829805420397951</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2241,27 +2241,27 @@
         <v>0.150677</v>
       </c>
       <c r="O29">
-        <v>0.02495116503186106</v>
+        <v>0.01770646565617993</v>
       </c>
       <c r="P29">
-        <v>0.01677361711753432</v>
+        <v>0.01198973960867219</v>
       </c>
       <c r="Q29">
-        <v>1.772669199643333</v>
+        <v>0.8058084916143334</v>
       </c>
       <c r="R29">
-        <v>10.63601519786</v>
+        <v>4.834850949686</v>
       </c>
       <c r="S29">
-        <v>0.01145991491660183</v>
+        <v>0.004347206975435565</v>
       </c>
       <c r="T29">
-        <v>0.008101330687394713</v>
+        <v>0.003088255178652655</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>23.52939333333333</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="H30">
-        <v>70.58817999999999</v>
+        <v>32.087518</v>
       </c>
       <c r="I30">
-        <v>0.4592937805496555</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="J30">
-        <v>0.4829805420397951</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.04270366666666667</v>
+        <v>2.49977</v>
       </c>
       <c r="N30">
-        <v>0.128111</v>
+        <v>7.499309999999999</v>
       </c>
       <c r="O30">
-        <v>0.01414291808923172</v>
+        <v>0.5875095954040616</v>
       </c>
       <c r="P30">
-        <v>0.01426153203570843</v>
+        <v>0.5967385476530023</v>
       </c>
       <c r="Q30">
-        <v>1.004791369775555</v>
+        <v>26.73713829028667</v>
       </c>
       <c r="R30">
-        <v>9.043122327979999</v>
+        <v>240.63424461258</v>
       </c>
       <c r="S30">
-        <v>0.006495754317207348</v>
+        <v>0.1442425530238133</v>
       </c>
       <c r="T30">
-        <v>0.006888042472924362</v>
+        <v>0.1537048318178729</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,46 +2341,418 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>23.52939333333333</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="H31">
-        <v>70.58817999999999</v>
+        <v>32.087518</v>
       </c>
       <c r="I31">
-        <v>0.4592937805496555</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="J31">
-        <v>0.4829805420397951</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>2.096548</v>
+        <v>0.2092486666666667</v>
       </c>
       <c r="N31">
-        <v>6.289643999999999</v>
+        <v>0.627746</v>
       </c>
       <c r="O31">
-        <v>0.6943503672785926</v>
+        <v>0.04917876424317944</v>
       </c>
       <c r="P31">
-        <v>0.7001737508816677</v>
+        <v>0.04995129369701767</v>
       </c>
       <c r="Q31">
-        <v>49.33050253421332</v>
+        <v>2.238090119380889</v>
       </c>
       <c r="R31">
-        <v>443.9745228079199</v>
+        <v>20.142811074428</v>
       </c>
       <c r="S31">
-        <v>0.3189108052134266</v>
+        <v>0.01207413557920485</v>
       </c>
       <c r="T31">
-        <v>0.3381702977228643</v>
+        <v>0.01286619613729029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>7.191416666666666</v>
+      </c>
+      <c r="H32">
+        <v>21.57425</v>
+      </c>
+      <c r="I32">
+        <v>0.1650737503424347</v>
+      </c>
+      <c r="J32">
+        <v>0.1731821028685757</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.122074</v>
+      </c>
+      <c r="N32">
+        <v>0.244148</v>
+      </c>
+      <c r="O32">
+        <v>0.0286904980655642</v>
+      </c>
+      <c r="P32">
+        <v>0.01942745705036666</v>
+      </c>
+      <c r="Q32">
+        <v>0.8778849981666667</v>
+      </c>
+      <c r="R32">
+        <v>5.267309989</v>
+      </c>
+      <c r="S32">
+        <v>0.00473604811487505</v>
+      </c>
+      <c r="T32">
+        <v>0.003364487865371435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>7.191416666666666</v>
+      </c>
+      <c r="H33">
+        <v>21.57425</v>
+      </c>
+      <c r="I33">
+        <v>0.1650737503424347</v>
+      </c>
+      <c r="J33">
+        <v>0.1731821028685757</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.1285086666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.385526</v>
+      </c>
+      <c r="O33">
+        <v>0.03020280856208721</v>
+      </c>
+      <c r="P33">
+        <v>0.03067725235021241</v>
+      </c>
+      <c r="Q33">
+        <v>0.9241593672777778</v>
+      </c>
+      <c r="R33">
+        <v>8.317434305500001</v>
+      </c>
+      <c r="S33">
+        <v>0.004985690880218334</v>
+      </c>
+      <c r="T33">
+        <v>0.005312751072239739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>7.191416666666666</v>
+      </c>
+      <c r="H34">
+        <v>21.57425</v>
+      </c>
+      <c r="I34">
+        <v>0.1650737503424347</v>
+      </c>
+      <c r="J34">
+        <v>0.1731821028685757</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.219918333333333</v>
+      </c>
+      <c r="N34">
+        <v>3.659755</v>
+      </c>
+      <c r="O34">
+        <v>0.2867118680689278</v>
+      </c>
+      <c r="P34">
+        <v>0.2912157096407287</v>
+      </c>
+      <c r="Q34">
+        <v>8.772941034305553</v>
+      </c>
+      <c r="R34">
+        <v>78.95646930874999</v>
+      </c>
+      <c r="S34">
+        <v>0.04732860332982328</v>
+      </c>
+      <c r="T34">
+        <v>0.05043334898394594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>7.191416666666666</v>
+      </c>
+      <c r="H35">
+        <v>21.57425</v>
+      </c>
+      <c r="I35">
+        <v>0.1650737503424347</v>
+      </c>
+      <c r="J35">
+        <v>0.1731821028685757</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.0753385</v>
+      </c>
+      <c r="N35">
+        <v>0.150677</v>
+      </c>
+      <c r="O35">
+        <v>0.01770646565617993</v>
+      </c>
+      <c r="P35">
+        <v>0.01198973960867219</v>
+      </c>
+      <c r="Q35">
+        <v>0.5417905445416666</v>
+      </c>
+      <c r="R35">
+        <v>3.25074326725</v>
+      </c>
+      <c r="S35">
+        <v>0.00292287269117514</v>
+      </c>
+      <c r="T35">
+        <v>0.002076408318276503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>7.191416666666666</v>
+      </c>
+      <c r="H36">
+        <v>21.57425</v>
+      </c>
+      <c r="I36">
+        <v>0.1650737503424347</v>
+      </c>
+      <c r="J36">
+        <v>0.1731821028685757</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.49977</v>
+      </c>
+      <c r="N36">
+        <v>7.499309999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.5875095954040616</v>
+      </c>
+      <c r="P36">
+        <v>0.5967385476530023</v>
+      </c>
+      <c r="Q36">
+        <v>17.97688764083333</v>
+      </c>
+      <c r="R36">
+        <v>161.7919887675</v>
+      </c>
+      <c r="S36">
+        <v>0.09698241227551488</v>
+      </c>
+      <c r="T36">
+        <v>0.1033444365452867</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>7.191416666666666</v>
+      </c>
+      <c r="H37">
+        <v>21.57425</v>
+      </c>
+      <c r="I37">
+        <v>0.1650737503424347</v>
+      </c>
+      <c r="J37">
+        <v>0.1731821028685757</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.2092486666666667</v>
+      </c>
+      <c r="N37">
+        <v>0.627746</v>
+      </c>
+      <c r="O37">
+        <v>0.04917876424317944</v>
+      </c>
+      <c r="P37">
+        <v>0.04995129369701767</v>
+      </c>
+      <c r="Q37">
+        <v>1.504794348944444</v>
+      </c>
+      <c r="R37">
+        <v>13.5431491405</v>
+      </c>
+      <c r="S37">
+        <v>0.008118123050828058</v>
+      </c>
+      <c r="T37">
+        <v>0.008650670083455349</v>
       </c>
     </row>
   </sheetData>
